--- a/requisiti/data dictionary/data dictionary comune.xlsx
+++ b/requisiti/data dictionary/data dictionary comune.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semmo\Documents\politecnico\ingegneria del software\progetto prova finale 2018-2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matteo\Desktop\progetto\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2511DC9C-2A92-4904-9992-90090B8DDF2A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4470" xr2:uid="{6834F849-05C4-4D01-979A-9533E56A9D19}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="96">
   <si>
     <t>Nome</t>
   </si>
@@ -189,12 +188,141 @@
   </si>
   <si>
     <t>134 bit</t>
+  </si>
+  <si>
+    <t>Dati di traffico</t>
+  </si>
+  <si>
+    <t>Variabile che identifica la mobilità di un tratto stradale in funzione della velocità dei veicoli e del loro numero in un intervallo di tempo</t>
+  </si>
+  <si>
+    <t>È formato da un intero positivo che rappresenta la velocità media, dalla posizione geografica espressa con due numeri di dieci cifre, e da una stringa di massimo 16 caratteri per il tipo di traffico</t>
+  </si>
+  <si>
+    <t>16bit+70bit+ 240bit=326bit</t>
+  </si>
+  <si>
+    <t>Stato del traffico</t>
+  </si>
+  <si>
+    <t>30 | -36.82065, 175.07823 | “velocità lenta”</t>
+  </si>
+  <si>
+    <t>Coda, traffico elevato, velocità lenta</t>
+  </si>
+  <si>
+    <t>Tipo di traffico (string)</t>
+  </si>
+  <si>
+    <t>Velocità, posizione</t>
+  </si>
+  <si>
+    <t>Velocità, posizione, app mobile, sistema centrale, centralina stradale, centralina automobile</t>
+  </si>
+  <si>
+    <t>Velocità</t>
+  </si>
+  <si>
+    <t>Spazio percorso da un veicolo in un intervallo di tempo, viene raccolta da appositi sensori, misurata in metri al secondo</t>
+  </si>
+  <si>
+    <t>Variabile intera positiva che indica la velocità rilevata</t>
+  </si>
+  <si>
+    <t>16 bit</t>
+  </si>
+  <si>
+    <t>10 m/s , 50m/s</t>
+  </si>
+  <si>
+    <t>Dati di traffico, veicolo</t>
+  </si>
+  <si>
+    <t>Raggio</t>
+  </si>
+  <si>
+    <t>Distanza in metri tra la posizione rilevata dall’applicazione mobile e la porzione di mappa caricabile sullo smartphone (viene caricata una area circolare)</t>
+  </si>
+  <si>
+    <t>Variabile intera positiva</t>
+  </si>
+  <si>
+    <t>500 m</t>
+  </si>
+  <si>
+    <t>Mappa, app mobile, posizione</t>
+  </si>
+  <si>
+    <t>Velocità lenta</t>
+  </si>
+  <si>
+    <t>Tratto di strada in cui i veicoli si muovono a una velocità inferiore alla media</t>
+  </si>
+  <si>
+    <t>Variabile booleana che indica la presenza o l’assenza di velocità lenta in una specifica posizione espressa con due numeri di dieci cifre</t>
+  </si>
+  <si>
+    <t>Rallentamento</t>
+  </si>
+  <si>
+    <t>1 | -36.82065, 175.07823, significa che nella posizione indicata dai due numeri con la virgola c’è velocità lenta</t>
+  </si>
+  <si>
+    <t>Vlenta (bool)</t>
+  </si>
+  <si>
+    <t>Velocità, posizione, dati di traffico, notifica</t>
+  </si>
+  <si>
+    <t>Mappa</t>
+  </si>
+  <si>
+    <t>Rappresentazione grafica delle strade caricabili dalla posizione individuata dall’applicazione mobile con i relativi dati di traffico</t>
+  </si>
+  <si>
+    <t>Dato che rappresenta un interpolazione di coordinate colorate in RGBA e che segnala i tratti di strada che presentano traffico</t>
+  </si>
+  <si>
+    <t>Cartina stradale</t>
+  </si>
+  <si>
+    <t>Traffico, colore, segnali, lista punti</t>
+  </si>
+  <si>
+    <t>Posizione, dati di traffico</t>
+  </si>
+  <si>
+    <t>Coda, velocità lenta, traffico elevato, posizione, raggio, veicolo, app mobile</t>
+  </si>
+  <si>
+    <t>Veicolo</t>
+  </si>
+  <si>
+    <t>Automobile su cui è installata una centralina auto (oppure unità contata dalla centralina stradale oppure mezzo di trasporto dell’utente che comunica con l’app moble)</t>
+  </si>
+  <si>
+    <t>Dato identificativo di una specifica auto con la relativa posizione e velocità</t>
+  </si>
+  <si>
+    <t>100 bit</t>
+  </si>
+  <si>
+    <t>Auto, automobile, macchina, unità</t>
+  </si>
+  <si>
+    <t>NumeroID</t>
+  </si>
+  <si>
+    <t>Posizione, velocità</t>
+  </si>
+  <si>
+    <t>Centralina auto, centralina stradale, utente, app</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -221,16 +349,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -239,13 +367,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -560,11 +692,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{383513DA-F3B3-414C-92F5-6E8CB3F1FB98}">
-  <dimension ref="A1:K6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -582,176 +714,362 @@
     <col min="11" max="11" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="2" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/requisiti/data dictionary/data dictionary comune.xlsx
+++ b/requisiti/data dictionary/data dictionary comune.xlsx
@@ -118,7 +118,7 @@
     <t xml:space="preserve">134 bit</t>
   </si>
   <si>
-    <t xml:space="preserve">Stazione stadale, cellula stradale</t>
+    <t xml:space="preserve">Stazione stradale, cellula stradale</t>
   </si>
   <si>
     <t xml:space="preserve">-36.82065, 175.07823 | “accesa”, -24.82065, 95.07823 | “spenta”</t>
@@ -287,7 +287,7 @@
     <t xml:space="preserve">Notifica</t>
   </si>
   <si>
-    <t xml:space="preserve">Segnalazione dell’avvenimento di un dato evento stradale riguardante il traffico. Può essere indirizzata da un sottosistema verso il sistema centrale o dal sistema centrale verso le applicazioni mobili, oppure anche da quest’ultime verso l’utente.</t>
+    <t xml:space="preserve">Segnalazione dell’avvenimento di un dato evento stradale riguardante il traffico. Può essere indirizzata da un sottosistema verso il sistema centrale o dal sistema centrale verso le applicazioni mobili, oppure anche da queste ultime verso l’utente.</t>
   </si>
   <si>
     <t xml:space="preserve">È un messaggio che indica il tipo di evento e la posizione dell’evento.</t>
@@ -371,13 +371,13 @@
     <t xml:space="preserve">Posizione </t>
   </si>
   <si>
-    <t xml:space="preserve">Notifica, dati di traffco, mappa, conteggio, posizione,</t>
+    <t xml:space="preserve">Notifica, dati di traffico, mappa, conteggio, posizione,</t>
   </si>
   <si>
     <t xml:space="preserve">Veicolo</t>
   </si>
   <si>
-    <t xml:space="preserve">Automobile su cui è installata una centralina auto (oppure unità contata dalla centralina stradale oppure mezzo di trasporto dell’utente che comunica con l’app moble)</t>
+    <t xml:space="preserve">Automobile su cui è installata una centralina auto (oppure unità contata dalla centralina stradale oppure mezzo di trasporto dell’utente che comunica con l’app mobile)</t>
   </si>
   <si>
     <t xml:space="preserve">Dato identificativo di una specifica auto con la relativa posizione e velocità</t>
@@ -528,7 +528,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -542,10 +542,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -636,25 +632,25 @@
   </sheetPr>
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="B18" activeCellId="0" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="27.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="55.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="56.69"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="43.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="44.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="18.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="55.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="18.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="27.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="37.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="1" width="8.67"/>
   </cols>
   <sheetData>
@@ -703,7 +699,7 @@
       <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -712,8 +708,8 @@
       <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
       <c r="I2" s="4" t="s">
         <v>17</v>
       </c>
@@ -772,8 +768,8 @@
       <c r="F4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
       <c r="I4" s="4" t="s">
         <v>34</v>
       </c>
@@ -925,10 +921,10 @@
       <c r="F9" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
       <c r="K9" s="4" t="s">
         <v>78</v>
       </c>
@@ -984,7 +980,7 @@
       <c r="G11" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="6"/>
+      <c r="H11" s="5"/>
       <c r="I11" s="4" t="s">
         <v>93</v>
       </c>
@@ -1064,12 +1060,12 @@
       <c r="D14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
       <c r="I14" s="4" t="s">
         <v>114</v>
       </c>

--- a/requisiti/data dictionary/data dictionary comune.xlsx
+++ b/requisiti/data dictionary/data dictionary comune.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\semmo\Desktop\Progetto 2018-2019\traffic-monitor\requisiti\data dictionary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6C9E38F-8F9E-47E3-83F2-56ECF409C395}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13EB0A92-E158-4E91-8F06-7FFF4FB174C6}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="136">
   <si>
     <t>Nome</t>
   </si>
@@ -187,9 +187,6 @@
     <t>16bit+70bit+ 240bit=326bit</t>
   </si>
   <si>
-    <t>Stato del traffico</t>
-  </si>
-  <si>
     <t>30 | -36.82065, 175.07823 | “velocità lenta”</t>
   </si>
   <si>
@@ -343,12 +340,6 @@
     <t>Notifica, dati di traffico, mappa, conteggio, posizione,</t>
   </si>
   <si>
-    <t>Veicolo</t>
-  </si>
-  <si>
-    <t>Automobile su cui è installata una centralina auto (oppure unità contata dalla centralina stradale oppure mezzo di trasporto dell’utente che comunica con l’app mobile)</t>
-  </si>
-  <si>
     <t>100 bit</t>
   </si>
   <si>
@@ -434,6 +425,15 @@
   </si>
   <si>
     <t>È formato da un booleano che indica la presenza di coda e da un dato di tipo posizione.</t>
+  </si>
+  <si>
+    <t>Stato del traffico, flusso</t>
+  </si>
+  <si>
+    <t>Stato veicolo</t>
+  </si>
+  <si>
+    <t>Insieme di dati inviati dalla centralina automobilistica riguardanti la posizione, la velocità e l'identificativo del veicolo.</t>
   </si>
 </sst>
 </file>
@@ -900,9 +900,9 @@
   <dimension ref="A1:AMK17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -964,7 +964,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>13</v>
@@ -993,7 +993,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>20</v>
@@ -1024,7 +1024,7 @@
         <v>27</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>28</v>
@@ -1055,7 +1055,7 @@
         <v>35</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>36</v>
@@ -1086,7 +1086,7 @@
         <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>44</v>
@@ -1121,313 +1121,311 @@
         <v>52</v>
       </c>
       <c r="E7" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>55</v>
       </c>
       <c r="H7" s="4"/>
       <c r="I7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>57</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>61</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>62</v>
       </c>
       <c r="F8" s="4"/>
       <c r="G8" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D9" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="D9" s="4" t="s">
+      <c r="E9" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>69</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>70</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
       <c r="K9" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="C10" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="E10" s="4" t="s">
         <v>75</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>76</v>
       </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="J10" s="4" t="s">
+      <c r="K10" s="4" t="s">
         <v>78</v>
-      </c>
-      <c r="K10" s="4" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="G11" s="4" t="s">
         <v>83</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>84</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="J11" s="4" t="s">
+      <c r="K11" s="4" t="s">
         <v>86</v>
-      </c>
-      <c r="K11" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C12" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="E12" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>91</v>
       </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J12" s="4"/>
       <c r="K12" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="C13" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>95</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>96</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
       <c r="K13" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>100</v>
-      </c>
       <c r="C14" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E14" s="5"/>
       <c r="F14" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="I14" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="J14" s="4" t="s">
+      <c r="K14" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="K14" s="4" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>105</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>108</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E17" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>118</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="I17" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
